--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankuh\OneDrive\Documents\knowbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF9F5080-9D7F-48F5-8A8F-5C094B782E64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33BB1EA-7DDC-42D1-99C3-101C93A09609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66B18006-BF55-4C11-A6CB-3F871AE434AF}"/>
+    <workbookView xWindow="14784" yWindow="492" windowWidth="8256" windowHeight="11424" xr2:uid="{66B18006-BF55-4C11-A6CB-3F871AE434AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Celebi</t>
   </si>
@@ -65,6 +65,30 @@
   </si>
   <si>
     <t>html/shashi_throor.html</t>
+  </si>
+  <si>
+    <t>Opinion Trading</t>
+  </si>
+  <si>
+    <t>html/op_trading.html</t>
+  </si>
+  <si>
+    <t>Madhuri Gupta</t>
+  </si>
+  <si>
+    <t>Mohini Mohan Dutta</t>
+  </si>
+  <si>
+    <t>Karnataka Soaps and Detergents Limited</t>
+  </si>
+  <si>
+    <t>IndiGo</t>
+  </si>
+  <si>
+    <t>Vaibhav Taneja</t>
+  </si>
+  <si>
+    <t>Emirates Draw</t>
   </si>
 </sst>
 </file>
@@ -425,15 +449,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDCDA65-4680-432C-B464-679AF192EE23}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
   </cols>
@@ -453,10 +477,7 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f>"{""name"": """ &amp; A2 &amp; """, ""link"": """ &amp; B2 &amp; """},"</f>
-        <v>{"name": "Celebi", "link": "html/celebi.html"},</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -465,10 +486,7 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f>"{""name"": """ &amp; A3 &amp; """, ""link"": """ &amp; B3 &amp; """},"</f>
-        <v>{"name": "Lashkar-e-Taiba", "link": "html/let.html"},</v>
-      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -477,10 +495,7 @@
       <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" ref="C4:C5" si="0">"{""name"": """ &amp; A4 &amp; """, ""link"": """ &amp; B4 &amp; """},"</f>
-        <v>{"name": "Saifullah Khalid", "link": "html/Saifullah_Khalid.html"},</v>
-      </c>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -489,9 +504,44 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>{"name": "Shashi Throor", "link": "html/shashi_throor.html"},</v>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankuh\OneDrive\Documents\knowbook\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankuh\OneDrive\Documents\KnowBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33BB1EA-7DDC-42D1-99C3-101C93A09609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E48687-AD9F-4CCA-B7D8-57E18E16AF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14784" yWindow="492" windowWidth="8256" windowHeight="11424" xr2:uid="{66B18006-BF55-4C11-A6CB-3F871AE434AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Celebi</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>Emirates Draw</t>
+  </si>
+  <si>
+    <t>Microsoft Layoff Stories</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDCDA65-4680-432C-B464-679AF192EE23}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -544,6 +547,11 @@
         <v>17</v>
       </c>
     </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
     <sortCondition ref="A2:A25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankuh\OneDrive\Documents\KnowBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1E48687-AD9F-4CCA-B7D8-57E18E16AF6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11844A98-BFD6-4680-AE3F-E039CCE4034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14784" yWindow="492" windowWidth="8256" windowHeight="11424" xr2:uid="{66B18006-BF55-4C11-A6CB-3F871AE434AF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Celebi</t>
   </si>
@@ -92,6 +92,9 @@
   </si>
   <si>
     <t>Microsoft Layoff Stories</t>
+  </si>
+  <si>
+    <t>NIBE Limited</t>
   </si>
 </sst>
 </file>
@@ -452,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDCDA65-4680-432C-B464-679AF192EE23}">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -552,6 +555,11 @@
         <v>18</v>
       </c>
     </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
     <sortCondition ref="A2:A25"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ankuh\OneDrive\Documents\KnowBook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11844A98-BFD6-4680-AE3F-E039CCE4034C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0760F743-3A5F-40E9-828D-0D007F934809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14784" yWindow="492" windowWidth="8256" windowHeight="11424" xr2:uid="{66B18006-BF55-4C11-A6CB-3F871AE434AF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66B18006-BF55-4C11-A6CB-3F871AE434AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Celebi</t>
   </si>
@@ -49,30 +49,9 @@
     <t>Shashi Throor</t>
   </si>
   <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>html/celebi.html</t>
-  </si>
-  <si>
-    <t>html/let.html</t>
-  </si>
-  <si>
-    <t>html/Saifullah_Khalid.html</t>
-  </si>
-  <si>
-    <t>html/shashi_throor.html</t>
-  </si>
-  <si>
     <t>Opinion Trading</t>
   </si>
   <si>
-    <t>html/op_trading.html</t>
-  </si>
-  <si>
     <t>Madhuri Gupta</t>
   </si>
   <si>
@@ -95,13 +74,40 @@
   </si>
   <si>
     <t>NIBE Limited</t>
+  </si>
+  <si>
+    <t>Ganesh Nibe</t>
+  </si>
+  <si>
+    <t>Shirui Lily</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Person</t>
+  </si>
+  <si>
+    <t>Finance</t>
+  </si>
+  <si>
+    <t>Organisation</t>
+  </si>
+  <si>
+    <t>Thing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,6 +120,28 @@
       <color rgb="FFCCCCCC"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -133,16 +161,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -455,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDCDA65-4680-432C-B464-679AF192EE23}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -468,12 +505,12 @@
     <col min="3" max="3" width="66" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -490,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1"/>
     </row>
@@ -499,7 +536,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1"/>
     </row>
@@ -508,57 +545,103 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>19</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KnowBook - Workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E0155E-A06C-45DA-8B84-29D35100E630}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811DF646-5042-4CD1-80B3-BB27CC6B1A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66B18006-BF55-4C11-A6CB-3F871AE434AF}"/>
   </bookViews>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
     <t>Jawaharlal Nehru University</t>
   </si>
   <si>
@@ -71,13 +68,94 @@
   </si>
   <si>
     <t>Delhi University</t>
+  </si>
+  <si>
+    <t>Amul</t>
+  </si>
+  <si>
+    <t>Advertisements</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Terror Attacks</t>
+  </si>
+  <si>
+    <t>Pahalgam Terror Attack 2025</t>
+  </si>
+  <si>
+    <t>Kota</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>National Eligibility cum Entrance Test</t>
+  </si>
+  <si>
+    <t>Student Suicides</t>
+  </si>
+  <si>
+    <t>Lexus</t>
+  </si>
+  <si>
+    <t>Delhi Pollution Control Committee</t>
+  </si>
+  <si>
+    <t>The Time of India</t>
+  </si>
+  <si>
+    <t>The Indian Express</t>
+  </si>
+  <si>
+    <t>The India Express - P. 1 - May 29 2025</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>Spacex</t>
+  </si>
+  <si>
+    <t>Elon Musk</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>Ukraine</t>
+  </si>
+  <si>
+    <t>Russia Ukraine War 2022</t>
+  </si>
+  <si>
+    <t>Indian Premier League 2025</t>
+  </si>
+  <si>
+    <t>Casper Ruud</t>
+  </si>
+  <si>
+    <t>pages to craeted</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>The French Open</t>
+  </si>
+  <si>
+    <t>Indian Athletics</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -94,13 +172,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,14 +199,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -452,82 +529,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDCDA65-4680-432C-B464-679AF192EE23}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="64.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.6640625" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="66" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
+      <c r="A18" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
+      <c r="A19" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\KnowBook - Workflow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811DF646-5042-4CD1-80B3-BB27CC6B1A9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81521425-CB0E-4443-A2ED-54CF5C723744}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{66B18006-BF55-4C11-A6CB-3F871AE434AF}"/>
   </bookViews>
@@ -35,17 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
-  <si>
-    <t>Name</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Jawaharlal Nehru University</t>
   </si>
   <si>
-    <t>Captions</t>
-  </si>
-  <si>
     <t>The Time of India - P. 2 - May 27 2025</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>Casper Ruud</t>
   </si>
   <si>
-    <t>pages to craeted</t>
-  </si>
-  <si>
     <t>Tennis</t>
   </si>
   <si>
@@ -149,6 +140,45 @@
   </si>
   <si>
     <t>Indian Athletics</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>United Nations Security Council</t>
+  </si>
+  <si>
+    <t>The Economic Times - P, 1 - June 2, 2025</t>
+  </si>
+  <si>
+    <t>Amrita Hospital</t>
+  </si>
+  <si>
+    <t>Punjab National Bank</t>
+  </si>
+  <si>
+    <t>Galgotias University</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>Murders</t>
+  </si>
+  <si>
+    <t>Delhi Crimes</t>
+  </si>
+  <si>
+    <t>Car Accidents</t>
+  </si>
+  <si>
+    <t>Amity International School</t>
+  </si>
+  <si>
+    <t>Bike Accidents</t>
+  </si>
+  <si>
+    <t>Sharda University</t>
   </si>
 </sst>
 </file>
@@ -529,10 +559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDDCDA65-4680-432C-B464-679AF192EE23}">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -545,191 +575,242 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="2"/>
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4" t="s">
-        <v>19</v>
+      <c r="A18" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>20</v>
+      <c r="A19" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>26</v>
+      <c r="A24" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>36</v>
+      <c r="A32" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>35</v>
+      <c r="A33" s="3" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>37</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B25">
-    <sortCondition ref="A2:A25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:A46">
+    <sortCondition ref="A1:A46"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
